--- a/preliminary-study/first_stratum_bitvector_fix_rate.xlsx
+++ b/preliminary-study/first_stratum_bitvector_fix_rate.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>unique_code</t>
+          <t>bitvector</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_count</t>
+          <t>total_response</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
